--- a/Excel/achv.成就(未完成).xlsx
+++ b/Excel/achv.成就(未完成).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40FC56-D2C7-4FB8-8AD3-AB7F947B30AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CCB963-10AF-4B58-880F-ADB599DB9D66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sheet名</t>
   </si>
@@ -45,22 +45,6 @@
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipt.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录装备的属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +545,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,27 +583,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>

--- a/Excel/achv.成就(未完成).xlsx
+++ b/Excel/achv.成就(未完成).xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CCB963-10AF-4B58-880F-ADB599DB9D66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592FB1C-CFFD-49C0-93FC-854DD9532387}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
+    <sheet name="成就" sheetId="26" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>sheet名</t>
   </si>
@@ -46,6 +47,333 @@
   <si>
     <t>表注释</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>param2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[1].param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[1].param2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮核子动力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮核子动力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮核子动力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽1等阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀BOSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽2等阶</t>
+  </si>
+  <si>
+    <t>装备槽3等阶</t>
+  </si>
+  <si>
+    <t>装备槽4等阶</t>
+  </si>
+  <si>
+    <t>装备槽5等阶</t>
+  </si>
+  <si>
+    <t>装备槽6等阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备总阶数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽1强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽2强化</t>
+  </si>
+  <si>
+    <t>装备槽3强化</t>
+  </si>
+  <si>
+    <t>装备槽4强化</t>
+  </si>
+  <si>
+    <t>装备槽5强化</t>
+  </si>
+  <si>
+    <t>装备槽6强化</t>
+  </si>
+  <si>
+    <t>装备最低强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽1精炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽2精炼</t>
+  </si>
+  <si>
+    <t>装备槽3精炼</t>
+  </si>
+  <si>
+    <t>装备槽4精炼</t>
+  </si>
+  <si>
+    <t>装备槽5精炼</t>
+  </si>
+  <si>
+    <t>装备槽6精炼</t>
+  </si>
+  <si>
+    <t>装备最低精炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁主舰皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁导弹炮皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁激光炮皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁皮肤总量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁特定皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[1].extId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定符文等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关特定关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀小怪数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀特定小怪数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀特定BOSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得特定道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费特定道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求条件ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求条件参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求条件参数2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求额外ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励1权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励1值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励2ID</t>
+  </si>
+  <si>
+    <t>奖励2权重</t>
+  </si>
+  <si>
+    <t>奖励2值</t>
   </si>
 </sst>
 </file>
@@ -239,7 +567,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -249,6 +577,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -544,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,4 +930,705 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
+  <dimension ref="A1:V50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="15" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="10.875" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>101</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4">
+        <v>101</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>101</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6">
+        <v>102</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7">
+        <v>102</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>102</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9">
+        <v>103</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10">
+        <v>103</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11">
+        <v>103</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12">
+        <v>103</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13">
+        <v>103</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14">
+        <v>104</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15">
+        <v>104</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16">
+        <v>104</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17">
+        <v>105</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18">
+        <v>105</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19">
+        <v>105</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20">
+        <v>105</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21">
+        <v>105</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22">
+        <v>105</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23">
+        <v>105</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24">
+        <v>106</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25">
+        <v>106</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S26" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26">
+        <v>106</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S27" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27">
+        <v>106</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28">
+        <v>106</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29">
+        <v>106</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30">
+        <v>106</v>
+      </c>
+      <c r="U30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31">
+        <v>107</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T32">
+        <v>107</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33">
+        <v>107</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S34" t="s">
+        <v>47</v>
+      </c>
+      <c r="T34">
+        <v>107</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35">
+        <v>107</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T36">
+        <v>107</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S37" t="s">
+        <v>50</v>
+      </c>
+      <c r="T37">
+        <v>107</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S38" t="s">
+        <v>51</v>
+      </c>
+      <c r="T38">
+        <v>108</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S39" t="s">
+        <v>52</v>
+      </c>
+      <c r="T39">
+        <v>108</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S40" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40">
+        <v>108</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S41" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41">
+        <v>201</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42">
+        <v>201</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S43" t="s">
+        <v>62</v>
+      </c>
+      <c r="T43">
+        <v>202</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T44">
+        <v>202</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S45" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45">
+        <v>203</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S46" t="s">
+        <v>64</v>
+      </c>
+      <c r="T46">
+        <v>203</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S47" t="s">
+        <v>65</v>
+      </c>
+      <c r="T47">
+        <v>301</v>
+      </c>
+      <c r="U47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S48" t="s">
+        <v>67</v>
+      </c>
+      <c r="T48">
+        <v>302</v>
+      </c>
+      <c r="U48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S49" t="s">
+        <v>19</v>
+      </c>
+      <c r="T49">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/achv.成就(未完成).xlsx
+++ b/Excel/achv.成就(未完成).xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592FB1C-CFFD-49C0-93FC-854DD9532387}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25CCF13-A48E-478C-8597-DC994D9F2225}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="成就" sheetId="26" r:id="rId2"/>
+    <sheet name="成就Base" sheetId="26" r:id="rId2"/>
+    <sheet name="成就" sheetId="27" r:id="rId3"/>
+    <sheet name="军阶" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="363">
   <si>
     <t>sheet名</t>
   </si>
@@ -374,6 +376,1008 @@
   </si>
   <si>
     <t>奖励2值</t>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级IX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到20级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到50级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到100级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到200级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到400级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到600级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到800级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到1000级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到1500级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到2000级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级IX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到20级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到50级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到100级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到200级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到400级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到600级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到800级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到1000级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到1500级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮等级达到2000级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级IX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到20级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到50级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到100级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到200级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到400级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到600级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到800级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到1000级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到1500级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮等级达到2000级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高突破等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破I</t>
+  </si>
+  <si>
+    <t>主舰突破II</t>
+  </si>
+  <si>
+    <t>主舰突破III</t>
+  </si>
+  <si>
+    <t>主舰突破IV</t>
+  </si>
+  <si>
+    <t>主舰突破V</t>
+  </si>
+  <si>
+    <t>主舰突破VI</t>
+  </si>
+  <si>
+    <t>主舰突破VII</t>
+  </si>
+  <si>
+    <t>主舰突破VIII</t>
+  </si>
+  <si>
+    <t>主舰突破IX</t>
+  </si>
+  <si>
+    <t>主舰突破X</t>
+  </si>
+  <si>
+    <t>导弹炮突破I</t>
+  </si>
+  <si>
+    <t>导弹炮突破II</t>
+  </si>
+  <si>
+    <t>导弹炮突破III</t>
+  </si>
+  <si>
+    <t>导弹炮突破IV</t>
+  </si>
+  <si>
+    <t>导弹炮突破V</t>
+  </si>
+  <si>
+    <t>导弹炮突破VI</t>
+  </si>
+  <si>
+    <t>导弹炮突破VII</t>
+  </si>
+  <si>
+    <t>导弹炮突破VIII</t>
+  </si>
+  <si>
+    <t>导弹炮突破IX</t>
+  </si>
+  <si>
+    <t>导弹炮突破X</t>
+  </si>
+  <si>
+    <t>主舰突破达到1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到6级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到7级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到8级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到9级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破达到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到6级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到7级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到8级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到9级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到6级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到7级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到8级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到9级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个2级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破IX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文最高等级VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个3级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个4级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个5级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个6级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个7级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个8级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个9级符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级IX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级达到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级达到10级</t>
+  </si>
+  <si>
+    <t>符文总等级达到15级</t>
+  </si>
+  <si>
+    <t>符文总等级达到20级</t>
+  </si>
+  <si>
+    <t>符文总等级达到25级</t>
+  </si>
+  <si>
+    <t>符文总等级达到30级</t>
+  </si>
+  <si>
+    <t>符文总等级达到35级</t>
+  </si>
+  <si>
+    <t>符文总等级达到40级</t>
+  </si>
+  <si>
+    <t>符文总等级达到50级</t>
+  </si>
+  <si>
+    <t>符文总等级达到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关IX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XIV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XVI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XVII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过5关</t>
+  </si>
+  <si>
+    <t>通过10关</t>
+  </si>
+  <si>
+    <t>通过20关</t>
+  </si>
+  <si>
+    <t>通过50关</t>
+  </si>
+  <si>
+    <t>通过100关</t>
+  </si>
+  <si>
+    <t>通过150关</t>
+  </si>
+  <si>
+    <t>通过200关</t>
+  </si>
+  <si>
+    <t>通过300关</t>
+  </si>
+  <si>
+    <t>通过400关</t>
+  </si>
+  <si>
+    <t>通过500关</t>
+  </si>
+  <si>
+    <t>通过600关</t>
+  </si>
+  <si>
+    <t>通过700关</t>
+  </si>
+  <si>
+    <t>通过800关</t>
+  </si>
+  <si>
+    <t>通过1000关</t>
+  </si>
+  <si>
+    <t>通过1200关</t>
+  </si>
+  <si>
+    <t>通过1500关</t>
+  </si>
+  <si>
+    <t>通过2000关</t>
+  </si>
+  <si>
+    <t>获得金币I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币IV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币VI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币VII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币VIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币IX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币XI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币1K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币50K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币300K</t>
+  </si>
+  <si>
+    <t>获得金币2M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币50M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币300M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币2G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币50G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币300G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币2B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币50B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币300B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币I</t>
+  </si>
+  <si>
+    <t>花费金币II</t>
+  </si>
+  <si>
+    <t>花费金币III</t>
+  </si>
+  <si>
+    <t>花费金币IV</t>
+  </si>
+  <si>
+    <t>花费金币V</t>
+  </si>
+  <si>
+    <t>花费金币VI</t>
+  </si>
+  <si>
+    <t>花费金币VII</t>
+  </si>
+  <si>
+    <t>花费金币VIII</t>
+  </si>
+  <si>
+    <t>花费金币IX</t>
+  </si>
+  <si>
+    <t>花费金币X</t>
+  </si>
+  <si>
+    <t>花费金币XI</t>
+  </si>
+  <si>
+    <t>花费金币20K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200K</t>
+  </si>
+  <si>
+    <t>花费金币5M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币25M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币5B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币5G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币25G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石I</t>
+  </si>
+  <si>
+    <t>花费钻石II</t>
+  </si>
+  <si>
+    <t>花费钻石III</t>
+  </si>
+  <si>
+    <t>花费钻石IV</t>
+  </si>
+  <si>
+    <t>花费钻石V</t>
+  </si>
+  <si>
+    <t>花费钻石VI</t>
+  </si>
+  <si>
+    <t>花费钻石VII</t>
+  </si>
+  <si>
+    <t>花费钻石VIII</t>
+  </si>
+  <si>
+    <t>花费钻石IX</t>
+  </si>
+  <si>
+    <t>花费钻石X</t>
+  </si>
+  <si>
+    <t>花费50钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费100钻石</t>
+  </si>
+  <si>
+    <t>花费200钻石</t>
+  </si>
+  <si>
+    <t>花费500钻石</t>
+  </si>
+  <si>
+    <t>花费1000钻石</t>
+  </si>
+  <si>
+    <t>花费1500钻石</t>
+  </si>
+  <si>
+    <t>花费2000钻石</t>
+  </si>
+  <si>
+    <t>花费3000钻石</t>
+  </si>
+  <si>
+    <t>花费5000钻石</t>
+  </si>
+  <si>
+    <t>花费7500钻石</t>
+  </si>
+  <si>
+    <t>花费10000钻石</t>
+  </si>
+  <si>
+    <t>成就Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveBase.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置成就的表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置成就的表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -875,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,13 +1918,46 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -934,26 +1971,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="15" width="15.625" customWidth="1"/>
-    <col min="19" max="19" width="16.375" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="10.875" customWidth="1"/>
-    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="7" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="76.25" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.875" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -982,25 +2021,10 @@
         <v>58</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1029,37 +2053,22 @@
         <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" t="s">
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -1088,542 +2097,3952 @@
         <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>101</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>101010001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="3">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>101</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>101010002</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>101</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>101010003</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>102</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>101010004</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="3">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>102</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>101010005</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>102</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>101010006</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>101</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9">
+        <v>102</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>101010007</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10">
+        <v>103</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>101010008</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11">
+        <v>103</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>101010009</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3">
+        <v>101</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12">
+        <v>103</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>101010010</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3">
+        <v>101</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13">
+        <v>103</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>101020001</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="3">
+        <v>101</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14">
+        <v>103</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>101020002</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="3">
+        <v>101</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>104</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>101020003</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="3">
+        <v>101</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>104</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>101020004</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="3">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17">
+        <v>104</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>101020005</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="3">
+        <v>101</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>400</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18">
+        <v>105</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>101020006</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="3">
+        <v>101</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>600</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19">
+        <v>105</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>101020007</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="3">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>800</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20">
+        <v>105</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>101020008</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="3">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21">
+        <v>105</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>101020009</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="3">
+        <v>101</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22">
+        <v>105</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>101020010</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="3">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>105</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>101030001</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="3">
+        <v>101</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24">
+        <v>105</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>101030002</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="3">
+        <v>101</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>50</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>106</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>101030003</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="3">
+        <v>101</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26">
+        <v>106</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>101030004</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="3">
+        <v>101</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27">
+        <v>106</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>101030005</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="3">
+        <v>101</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>400</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28">
+        <v>106</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>101030006</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="3">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>600</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29">
+        <v>106</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>101030007</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="3">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>800</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30">
+        <v>106</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>101030008</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="3">
+        <v>101</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31">
+        <v>106</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>101030009</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="3">
+        <v>101</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32">
+        <v>107</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>101030010</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="3">
+        <v>101</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33">
+        <v>107</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>102010001</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="3">
+        <v>102</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34">
+        <v>107</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>102010002</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="3">
+        <v>102</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35">
+        <v>107</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>102010003</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="3">
+        <v>102</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36">
+        <v>107</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>102010004</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="3">
+        <v>102</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>4</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N37" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37">
+        <v>107</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>102010005</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="3">
+        <v>102</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38">
+        <v>107</v>
+      </c>
+      <c r="P38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>102010006</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="3">
+        <v>102</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>6</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N39" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39">
+        <v>108</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>102010007</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="3">
+        <v>102</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>7</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40">
+        <v>108</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>102010008</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="3">
+        <v>102</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41">
+        <v>108</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>102010009</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="3">
+        <v>102</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>9</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42">
+        <v>201</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>102010010</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="3">
+        <v>102</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N43" t="s">
+        <v>61</v>
+      </c>
+      <c r="O43">
+        <v>201</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>102020001</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="3">
+        <v>102</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N44" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44">
+        <v>202</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>102020002</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="3">
+        <v>102</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>2</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O45">
+        <v>202</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>102020003</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="3">
+        <v>102</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46">
+        <v>203</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>102020004</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="3">
+        <v>102</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N47" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47">
+        <v>203</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>102020005</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="3">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N48" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48">
+        <v>301</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>102020006</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="3">
+        <v>102</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>6</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N49" t="s">
+        <v>67</v>
+      </c>
+      <c r="O49">
+        <v>302</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>102020007</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="3">
+        <v>102</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N50" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50">
+        <v>303</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>102020008</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="3">
+        <v>102</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51">
+        <v>401</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>102020009</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="3">
+        <v>102</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
+        <v>9</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>102020010</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="3">
+        <v>102</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>10</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>102030001</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="3">
+        <v>102</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>102030002</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="3">
+        <v>102</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>102030003</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="3">
+        <v>102</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>102030004</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="3">
+        <v>102</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>102030005</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="3">
+        <v>102</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>102030006</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="3">
+        <v>102</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3">
+        <v>6</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>102030007</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="3">
+        <v>102</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3">
+        <v>7</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>102030008</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="3">
+        <v>102</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>102030009</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="3">
+        <v>102</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3">
+        <v>9</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>102030010</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="3">
+        <v>102</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3">
+        <v>10</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>108020001</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="3">
+        <v>108</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3">
+        <v>2</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>108020002</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="3">
+        <v>108</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3">
+        <v>3</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>108020003</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="3">
+        <v>108</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>108020004</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="3">
+        <v>108</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3">
+        <v>5</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>108020005</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="3">
+        <v>108</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3">
+        <v>6</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>108020006</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="3">
+        <v>108</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3">
+        <v>7</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>108020007</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="3">
+        <v>108</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>108020008</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" s="3">
+        <v>108</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3">
+        <v>9</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>108010001</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="3">
+        <v>108</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3">
+        <v>2</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>108010002</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" s="3">
+        <v>108</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3">
+        <v>5</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>108010003</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="3">
+        <v>108</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3">
+        <v>10</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>108010004</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="3">
+        <v>108</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3">
+        <v>15</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>108010005</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76" s="3">
+        <v>108</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3">
+        <v>20</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>108010006</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="3">
+        <v>108</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3">
+        <v>25</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3">
+        <v>108010007</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="3">
+        <v>108</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3">
+        <v>30</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>108010008</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="3">
+        <v>108</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3">
+        <v>35</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>108010009</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="3">
+        <v>108</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3">
+        <v>40</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>108010010</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" s="3">
+        <v>108</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3">
+        <v>50</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>201010001</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" s="3">
+        <v>201</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3">
+        <v>5</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>201010002</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="3">
+        <v>201</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3">
+        <v>10</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>201010003</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="3">
+        <v>201</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3">
+        <v>20</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>201010004</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="3">
+        <v>201</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3">
+        <v>50</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>201010005</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" s="3">
+        <v>201</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3">
+        <v>100</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>201010006</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="3">
+        <v>201</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3">
+        <v>150</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>201010007</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="3">
+        <v>201</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3">
+        <v>200</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>201010008</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" s="3">
+        <v>201</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>201010009</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" s="3">
+        <v>201</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3">
+        <v>400</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>201010010</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="3">
+        <v>201</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3">
+        <v>500</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>89</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="B92" s="3">
+        <v>201010011</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="3">
+        <v>201</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3">
+        <v>600</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>90</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="B93" s="3">
+        <v>201010012</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="3">
+        <v>201</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3">
+        <v>700</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>91</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="B94" s="3">
+        <v>201010013</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" s="3">
+        <v>201</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3">
+        <v>800</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>92</v>
       </c>
-      <c r="S3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3">
+      <c r="B95" s="3">
+        <v>201010014</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="3">
+        <v>201</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>201010015</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="3">
+        <v>201</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>201010016</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="3">
+        <v>201</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3">
+        <v>201010017</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="3">
+        <v>201</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3">
+        <v>301010001</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="3">
+        <v>301</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3">
+        <v>301010002</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" s="3">
+        <v>301</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>50</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <v>301010003</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="3">
+        <v>301</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <v>301010004</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="3">
+        <v>301</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3">
+        <v>2</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3">
+        <v>301010005</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="3">
+        <v>301</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3">
+        <v>2</v>
+      </c>
+      <c r="H103" s="3">
+        <v>50</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
         <v>101</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4">
-        <v>101</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5">
-        <v>101</v>
-      </c>
-      <c r="U5">
+      <c r="B104" s="3">
+        <v>301010006</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="3">
+        <v>301</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3">
+        <v>2</v>
+      </c>
+      <c r="H104" s="3">
+        <v>300</v>
+      </c>
+      <c r="I104" s="3">
+        <v>1</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3">
+        <v>301010007</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" s="3">
+        <v>301</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6">
-        <v>102</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7">
-        <v>102</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8">
-        <v>102</v>
-      </c>
-      <c r="U8">
+      <c r="H105" s="3">
+        <v>2</v>
+      </c>
+      <c r="I105" s="3">
+        <v>1</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3">
+        <v>301010008</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D106" s="3">
+        <v>301</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T9">
-        <v>103</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S10" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10">
-        <v>103</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S11" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11">
-        <v>103</v>
-      </c>
-      <c r="U11">
+      <c r="H106" s="3">
+        <v>50</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3">
+        <v>301010009</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D107" s="3">
+        <v>301</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S12" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12">
-        <v>103</v>
-      </c>
-      <c r="U12">
+      <c r="H107" s="3">
+        <v>300</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3">
+        <v>301010010</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D108" s="3">
+        <v>301</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13">
-        <v>103</v>
-      </c>
-      <c r="U13">
+      <c r="H108" s="3">
+        <v>2</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
+        <v>301010011</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D109" s="3">
+        <v>301</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3">
+        <v>4</v>
+      </c>
+      <c r="H109" s="3">
+        <v>50</v>
+      </c>
+      <c r="I109" s="3">
+        <v>1</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
+        <v>301010012</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D110" s="3">
+        <v>301</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3">
+        <v>4</v>
+      </c>
+      <c r="H110" s="3">
+        <v>300</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
+        <v>301020001</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" s="3">
+        <v>302</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>20</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>301020002</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="3">
+        <v>302</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>200</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3">
+        <v>301020003</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" s="3">
+        <v>302</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3">
+        <v>2</v>
+      </c>
+      <c r="H113" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S14" t="s">
+      <c r="I113" s="3">
+        <v>1</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3">
+        <v>301020004</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="3">
+        <v>302</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3">
+        <v>2</v>
+      </c>
+      <c r="H114" s="3">
         <v>25</v>
       </c>
-      <c r="T14">
-        <v>104</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15">
-        <v>104</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S16" t="s">
-        <v>27</v>
-      </c>
-      <c r="T16">
-        <v>104</v>
-      </c>
-      <c r="U16">
+      <c r="I114" s="3">
+        <v>1</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3">
+        <v>301020005</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="3">
+        <v>302</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3">
+        <v>2</v>
+      </c>
+      <c r="H115" s="3">
+        <v>200</v>
+      </c>
+      <c r="I115" s="3">
+        <v>1</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3">
+        <v>301020006</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" s="3">
+        <v>302</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S17" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17">
-        <v>105</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18">
-        <v>105</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S19" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19">
-        <v>105</v>
-      </c>
-      <c r="U19">
+      <c r="H116" s="3">
+        <v>5</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3">
+        <v>301020007</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D117" s="3">
+        <v>302</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S20" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20">
-        <v>105</v>
-      </c>
-      <c r="U20">
+      <c r="H117" s="3">
+        <v>25</v>
+      </c>
+      <c r="I117" s="3">
+        <v>1</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3">
+        <v>301020008</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="3">
+        <v>302</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3">
+        <v>3</v>
+      </c>
+      <c r="H118" s="3">
+        <v>200</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3">
+        <v>301020009</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119" s="3">
+        <v>302</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S21" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21">
-        <v>105</v>
-      </c>
-      <c r="U21">
+      <c r="H119" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S22" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22">
-        <v>105</v>
-      </c>
-      <c r="U22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T23">
-        <v>105</v>
-      </c>
-      <c r="U23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T24">
-        <v>106</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25">
-        <v>106</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S26" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26">
-        <v>106</v>
-      </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S27" t="s">
-        <v>40</v>
-      </c>
-      <c r="T27">
-        <v>106</v>
-      </c>
-      <c r="U27">
+      <c r="I119" s="3">
+        <v>1</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3">
+        <v>301020010</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D120" s="3">
+        <v>302</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S28" t="s">
-        <v>41</v>
-      </c>
-      <c r="T28">
-        <v>106</v>
-      </c>
-      <c r="U28">
+      <c r="H120" s="3">
+        <v>25</v>
+      </c>
+      <c r="I120" s="3">
+        <v>1</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3">
+        <v>301020011</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D121" s="3">
+        <v>302</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3">
+        <v>4</v>
+      </c>
+      <c r="H121" s="3">
+        <v>200</v>
+      </c>
+      <c r="I121" s="3">
+        <v>1</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="3">
+        <v>301020012</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D122" s="3">
+        <v>302</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T29">
-        <v>106</v>
-      </c>
-      <c r="U29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S30" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30">
-        <v>106</v>
-      </c>
-      <c r="U30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S31" t="s">
-        <v>44</v>
-      </c>
-      <c r="T31">
-        <v>107</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T32">
-        <v>107</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S33" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33">
-        <v>107</v>
-      </c>
-      <c r="U33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="19:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S34" t="s">
-        <v>47</v>
-      </c>
-      <c r="T34">
-        <v>107</v>
-      </c>
-      <c r="U34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S35" t="s">
-        <v>48</v>
-      </c>
-      <c r="T35">
-        <v>107</v>
-      </c>
-      <c r="U35">
+      <c r="H122" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S36" t="s">
-        <v>49</v>
-      </c>
-      <c r="T36">
-        <v>107</v>
-      </c>
-      <c r="U36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S37" t="s">
+      <c r="I122" s="3">
+        <v>1</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3">
+        <v>301020101</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D123" s="3">
+        <v>302</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3">
         <v>50</v>
       </c>
-      <c r="T37">
-        <v>107</v>
-      </c>
-      <c r="U37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S38" t="s">
-        <v>51</v>
-      </c>
-      <c r="T38">
-        <v>108</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S39" t="s">
-        <v>52</v>
-      </c>
-      <c r="T39">
-        <v>108</v>
-      </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S40" t="s">
-        <v>60</v>
-      </c>
-      <c r="T40">
-        <v>108</v>
-      </c>
-      <c r="U40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S41" t="s">
-        <v>29</v>
-      </c>
-      <c r="T41">
-        <v>201</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S42" t="s">
-        <v>61</v>
-      </c>
-      <c r="T42">
-        <v>201</v>
-      </c>
-      <c r="U42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S43" t="s">
-        <v>62</v>
-      </c>
-      <c r="T43">
-        <v>202</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S44" t="s">
-        <v>63</v>
-      </c>
-      <c r="T44">
-        <v>202</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S45" t="s">
-        <v>30</v>
-      </c>
-      <c r="T45">
-        <v>203</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S46" t="s">
-        <v>64</v>
-      </c>
-      <c r="T46">
-        <v>203</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S47" t="s">
-        <v>65</v>
-      </c>
-      <c r="T47">
-        <v>301</v>
-      </c>
-      <c r="U47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S48" t="s">
-        <v>67</v>
-      </c>
-      <c r="T48">
+      <c r="I123" s="3">
+        <v>2</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="B124" s="3">
+        <v>301020102</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D124" s="3">
         <v>302</v>
       </c>
-      <c r="U48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S49" t="s">
-        <v>19</v>
-      </c>
-      <c r="T49">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S50" t="s">
-        <v>20</v>
-      </c>
-      <c r="T50">
-        <v>401</v>
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3">
+        <v>100</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="3">
+        <v>301020103</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D125" s="3">
+        <v>302</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3">
+        <v>200</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="3">
+        <v>301020104</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D126" s="3">
+        <v>302</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3">
+        <v>500</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3">
+        <v>301020105</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D127" s="3">
+        <v>302</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+      <c r="B128" s="3">
+        <v>301020106</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D128" s="3">
+        <v>302</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="3">
+        <v>301020107</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D129" s="3">
+        <v>302</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="3">
+        <v>301020108</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D130" s="3">
+        <v>302</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I130" s="3">
+        <v>2</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>128</v>
+      </c>
+      <c r="B131" s="3">
+        <v>301020109</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D131" s="3">
+        <v>302</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I131" s="3">
+        <v>2</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>129</v>
+      </c>
+      <c r="B132" s="3">
+        <v>301020110</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="3">
+        <v>302</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I132" s="3">
+        <v>2</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="3">
+        <v>301020111</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" s="3">
+        <v>302</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I133" s="3">
+        <v>2</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -1631,4 +6050,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FBD91C-F569-4595-80D6-ADF1A2755A73}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F89773-5594-40FA-AAF3-6CDE08A36FD6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>